--- a/sprtContracts/nfl_standings.xlsx
+++ b/sprtContracts/nfl_standings.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,37 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de6cb9e11468ad32/Documents/Jason/NYC Data Science Academy/projects/web_scraping/sprtContracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{BCB044D5-BA98-4021-BC95-49F2F986638E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82D29ACA-70F6-4F9B-A1FE-FD4375733E35}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2385E295-58F7-46D7-8357-A13DFC41EE21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16065" yWindow="-21600" windowWidth="38400" windowHeight="21000" xr2:uid="{8B5C192A-7C34-4AB5-BBE6-9945C8C6D23A}"/>
+    <workbookView xWindow="28875" yWindow="-21600" windowWidth="25590" windowHeight="21000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="nfl_standings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="40">
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>year</t>
   </si>
   <si>
     <t>team</t>
@@ -53,34 +37,49 @@
     <t>playoff</t>
   </si>
   <si>
-    <t>new-england-patriots</t>
+    <t>arizona-cardinals</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>atlanta-falcons</t>
+  </si>
+  <si>
+    <t>baltimore-ravens</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>buffalo-bills</t>
   </si>
   <si>
-    <t>new-york-jets</t>
+    <t>carolina-panthers</t>
   </si>
   <si>
-    <t>miami-dolphins</t>
+    <t>chicago-bears</t>
   </si>
   <si>
-    <t>baltimore-ravens</t>
-  </si>
-  <si>
-    <t>pittsburgh-steelers</t>
+    <t>cincinnati-bengals</t>
   </si>
   <si>
     <t>cleveland-browns</t>
   </si>
   <si>
-    <t>cincinatti-bengals</t>
+    <t>dallas-cowboys</t>
+  </si>
+  <si>
+    <t>denver-broncos</t>
+  </si>
+  <si>
+    <t>detroit-lions</t>
+  </si>
+  <si>
+    <t>green-bay-packers</t>
   </si>
   <si>
     <t>houston-texans</t>
-  </si>
-  <si>
-    <t>tennessee-titans</t>
   </si>
   <si>
     <t>indianapolis-colts</t>
@@ -89,78 +88,65 @@
     <t>jacksonville-jaguars</t>
   </si>
   <si>
-    <t>kansis-city-chiefs</t>
+    <t>kansas-city-chiefs</t>
   </si>
   <si>
-    <t>denver-broncos</t>
+    <t>los-angeles-chargers</t>
+  </si>
+  <si>
+    <t>los-angeles-rams</t>
+  </si>
+  <si>
+    <t>miami-dolphins</t>
+  </si>
+  <si>
+    <t>minnesota-vikings</t>
+  </si>
+  <si>
+    <t>new-england-patriots</t>
+  </si>
+  <si>
+    <t>new-orleans-saints</t>
+  </si>
+  <si>
+    <t>new-york-giants</t>
+  </si>
+  <si>
+    <t>new-york-jets</t>
   </si>
   <si>
     <t>oakland-raiders</t>
   </si>
   <si>
-    <t>los-angeles-chargers</t>
-  </si>
-  <si>
     <t>philadelphia-eagles</t>
   </si>
   <si>
-    <t>dallas-cowboys</t>
+    <t>pittsburgh-steelers</t>
   </si>
   <si>
-    <t>new-york-giants</t>
+    <t>san-francisco-49ers</t>
+  </si>
+  <si>
+    <t>seattle-seahawks</t>
+  </si>
+  <si>
+    <t>tampa-bay-buccaneers</t>
+  </si>
+  <si>
+    <t>tennessee-titans</t>
   </si>
   <si>
     <t>washington-redskins</t>
   </si>
   <si>
-    <t>green-bay-packers</t>
-  </si>
-  <si>
-    <t>minnesota-vikings</t>
-  </si>
-  <si>
-    <t>chicago-bears</t>
-  </si>
-  <si>
-    <t>detroit-lions</t>
-  </si>
-  <si>
-    <t>new-orlean-saints</t>
-  </si>
-  <si>
-    <t>atlanta-falcons</t>
-  </si>
-  <si>
-    <t>tampa-bay-buccaneers</t>
-  </si>
-  <si>
-    <t>carolina-panthers</t>
-  </si>
-  <si>
-    <t>san-franciscos-49ers</t>
-  </si>
-  <si>
-    <t>seattle-seahawks</t>
-  </si>
-  <si>
-    <t>los-angeles-rams</t>
-  </si>
-  <si>
-    <t>arizona-cardinals</t>
-  </si>
-  <si>
-    <t>year</t>
+    <t>log-angeles-rams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,20 +162,308 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFD6DEEB"/>
-      <name val="Arial Unicode MS"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -197,23 +471,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,55 +979,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5240925-C073-48C3-AEEC-7F459B38B467}">
-  <dimension ref="A1:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -580,16 +1033,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -597,55 +1050,55 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2019</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2019</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -654,134 +1107,134 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2019</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2019</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2019</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2019</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2019</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2019</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2019</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -790,297 +1243,287 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2019</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2019</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2019</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2019</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2019</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2019</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2019</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2019</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2019</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2019</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2019</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2019</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2019</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2019</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -1089,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1097,20 +1540,2739 @@
         <v>2019</v>
       </c>
       <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2017</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2017</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2017</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2017</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2017</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2017</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2017</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2017</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2017</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2017</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2017</v>
+      </c>
+      <c r="B44" t="s">
         <v>37</v>
       </c>
-      <c r="C33">
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2017</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2017</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2017</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2017</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2017</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2017</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2017</v>
+      </c>
+      <c r="B51" t="s">
         <v>5</v>
       </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2017</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2017</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2017</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2017</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2017</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2017</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2017</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2017</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2017</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2017</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2017</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2017</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2017</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2017</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2018</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2018</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67">
+        <v>13</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2018</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2018</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2018</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2018</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2018</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2018</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2018</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2018</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2018</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2018</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2018</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2018</v>
+      </c>
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2018</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2018</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2018</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>2018</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2018</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2018</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2018</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2018</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2018</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2018</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2018</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2018</v>
+      </c>
+      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2018</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2018</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2018</v>
+      </c>
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2018</v>
+      </c>
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2018</v>
+      </c>
+      <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2018</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2016</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2016</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2016</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2016</v>
+      </c>
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2016</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2016</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103">
+        <v>11</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2016</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104">
+        <v>11</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2016</v>
+      </c>
+      <c r="B105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2016</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2016</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2016</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2016</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2016</v>
+      </c>
+      <c r="B110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2016</v>
+      </c>
+      <c r="B111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2016</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2016</v>
+      </c>
+      <c r="B113" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2016</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="D114">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2016</v>
+      </c>
+      <c r="B115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2016</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116">
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2016</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>7</v>
+      </c>
+      <c r="D117">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2016</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2016</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119">
+        <v>7</v>
+      </c>
+      <c r="D119">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2016</v>
+      </c>
+      <c r="B120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2016</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2016</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2016</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2016</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>11</v>
+      </c>
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2016</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2016</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2016</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2016</v>
+      </c>
+      <c r="B128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2016</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129">
         <v>1</v>
+      </c>
+      <c r="D129">
+        <v>15</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2015</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>15</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2015</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>13</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2015</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2015</v>
+      </c>
+      <c r="B133" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133">
+        <v>12</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>2015</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134">
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>2015</v>
+      </c>
+      <c r="B135" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135">
+        <v>11</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2015</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136">
+        <v>11</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2015</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2015</v>
+      </c>
+      <c r="B138" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2015</v>
+      </c>
+      <c r="B139" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139">
+        <v>10</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2015</v>
+      </c>
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>2015</v>
+      </c>
+      <c r="B141" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141">
+        <v>9</v>
+      </c>
+      <c r="D141">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2015</v>
+      </c>
+      <c r="B142" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>7</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2015</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2015</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144">
+        <v>8</v>
+      </c>
+      <c r="D144">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2015</v>
+      </c>
+      <c r="B145" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145">
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2015</v>
+      </c>
+      <c r="B146" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146">
+        <v>7</v>
+      </c>
+      <c r="D146">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2015</v>
+      </c>
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147">
+        <v>7</v>
+      </c>
+      <c r="D147">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2015</v>
+      </c>
+      <c r="B148" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148">
+        <v>7</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2015</v>
+      </c>
+      <c r="B149" t="s">
+        <v>32</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+      <c r="D149">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2015</v>
+      </c>
+      <c r="B150" t="s">
+        <v>28</v>
+      </c>
+      <c r="C150">
+        <v>7</v>
+      </c>
+      <c r="D150">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>2015</v>
+      </c>
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>10</v>
+      </c>
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>2015</v>
+      </c>
+      <c r="B152" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>10</v>
+      </c>
+      <c r="E152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>2015</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>10</v>
+      </c>
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>2015</v>
+      </c>
+      <c r="B154" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>10</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>2015</v>
+      </c>
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+      <c r="D155">
+        <v>11</v>
+      </c>
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>2015</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>11</v>
+      </c>
+      <c r="E156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>2015</v>
+      </c>
+      <c r="B157" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
+      <c r="D157">
+        <v>11</v>
+      </c>
+      <c r="E157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>2015</v>
+      </c>
+      <c r="B158" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>2015</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>2015</v>
+      </c>
+      <c r="B160" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>2015</v>
+      </c>
+      <c r="B161" t="s">
+        <v>37</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161">
+        <v>13</v>
+      </c>
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2014</v>
+      </c>
+      <c r="B162" t="s">
+        <v>35</v>
+      </c>
+      <c r="C162">
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2014</v>
+      </c>
+      <c r="B163" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163">
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2014</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>2014</v>
+      </c>
+      <c r="B165" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165">
+        <v>12</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>2014</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166">
+        <v>12</v>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>2014</v>
+      </c>
+      <c r="B167" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167">
+        <v>11</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>2014</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168">
+        <v>11</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>2014</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>11</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>2014</v>
+      </c>
+      <c r="B170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170">
+        <v>11</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>2014</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171">
+        <v>10</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>2014</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172">
+        <v>10</v>
+      </c>
+      <c r="D172">
+        <v>6</v>
+      </c>
+      <c r="E172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>2014</v>
+      </c>
+      <c r="B173" t="s">
+        <v>32</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>6</v>
+      </c>
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>2014</v>
+      </c>
+      <c r="B174" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174">
+        <v>9</v>
+      </c>
+      <c r="D174">
+        <v>7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>2014</v>
+      </c>
+      <c r="B175" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175">
+        <v>9</v>
+      </c>
+      <c r="D175">
+        <v>7</v>
+      </c>
+      <c r="E175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>2014</v>
+      </c>
+      <c r="B176" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176">
+        <v>9</v>
+      </c>
+      <c r="D176">
+        <v>7</v>
+      </c>
+      <c r="E176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>2014</v>
+      </c>
+      <c r="B177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177">
+        <v>9</v>
+      </c>
+      <c r="D177">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>2014</v>
+      </c>
+      <c r="B178" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178">
+        <v>8</v>
+      </c>
+      <c r="D178">
+        <v>8</v>
+      </c>
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>2014</v>
+      </c>
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179">
+        <v>8</v>
+      </c>
+      <c r="D179">
+        <v>8</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>2014</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180">
+        <v>7</v>
+      </c>
+      <c r="D180">
+        <v>8</v>
+      </c>
+      <c r="E180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>2014</v>
+      </c>
+      <c r="B181" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181">
+        <v>7</v>
+      </c>
+      <c r="D181">
+        <v>9</v>
+      </c>
+      <c r="E181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>2014</v>
+      </c>
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182">
+        <v>7</v>
+      </c>
+      <c r="D182">
+        <v>9</v>
+      </c>
+      <c r="E182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>2014</v>
+      </c>
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183">
+        <v>7</v>
+      </c>
+      <c r="D183">
+        <v>9</v>
+      </c>
+      <c r="E183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>2014</v>
+      </c>
+      <c r="B184" t="s">
+        <v>29</v>
+      </c>
+      <c r="C184">
+        <v>6</v>
+      </c>
+      <c r="D184">
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>2014</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+      <c r="D185">
+        <v>10</v>
+      </c>
+      <c r="E185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>2014</v>
+      </c>
+      <c r="B186" t="s">
+        <v>24</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>2014</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>11</v>
+      </c>
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>2014</v>
+      </c>
+      <c r="B188" t="s">
+        <v>30</v>
+      </c>
+      <c r="C188">
+        <v>4</v>
+      </c>
+      <c r="D188">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>2014</v>
+      </c>
+      <c r="B189" t="s">
+        <v>38</v>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+      <c r="D189">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>2014</v>
+      </c>
+      <c r="B190" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>13</v>
+      </c>
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>2014</v>
+      </c>
+      <c r="B191" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191">
+        <v>13</v>
+      </c>
+      <c r="E191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>2014</v>
+      </c>
+      <c r="B192" t="s">
+        <v>37</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>2014</v>
+      </c>
+      <c r="B193" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>14</v>
+      </c>
+      <c r="E193" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>